--- a/mysql/mysqlnote.xlsx
+++ b/mysql/mysqlnote.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="144525" iterate="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -41,6 +41,16 @@
   </si>
   <si>
     <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hash索引与B树索引</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.hash索引只支持=或&lt;=&gt;操作符的等式比较，不支持范围查询
+2.优化器不能使用hash索引来加速order by 操作
+3.只能使用整个关键字来搜索一行</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -114,13 +124,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -139,7 +158,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -181,7 +200,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -216,7 +235,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -428,14 +447,14 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="47.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="57.375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -469,10 +488,16 @@
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
+    <row r="3" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
     </row>

--- a/mysql/mysqlnote.xlsx
+++ b/mysql/mysqlnote.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CFBDB44-D21E-4C66-9C51-57BFF2FF62A9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -51,13 +52,21 @@
     <t>1.hash索引只支持=或&lt;=&gt;操作符的等式比较，不支持范围查询
 2.优化器不能使用hash索引来加速order by 操作
 3.只能使用整个关键字来搜索一行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存储引擎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>InnoDB，MyISAM(支持全文搜索)，Memory(基于内存)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -200,7 +209,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -233,9 +242,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -268,6 +294,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -443,22 +486,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="57.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="57.36328125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -475,7 +518,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -488,7 +531,7 @@
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" ht="42" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -501,56 +544,60 @@
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>

--- a/mysql/mysqlnote.xlsx
+++ b/mysql/mysqlnote.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23901"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CFBDB44-D21E-4C66-9C51-57BFF2FF62A9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CB4F04B-F45C-40A3-AC55-A23D0F362C9F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -60,6 +60,22 @@
   </si>
   <si>
     <t>InnoDB，MyISAM(支持全文搜索)，Memory(基于内存)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改表的编码格式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改表中所有字段的编码格式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ALTER TABLE `NoticeConfig` DEFAULT CHARACTER SET utf8;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>alter table `NoticeConfig` convert to character set utf8;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -490,13 +506,13 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.6328125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="57.36328125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
   </cols>
@@ -557,15 +573,23 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
+      <c r="B5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
     </row>

--- a/mysql/mysqlnote.xlsx
+++ b/mysql/mysqlnote.xlsx
@@ -3,19 +3,19 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23901"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CB4F04B-F45C-40A3-AC55-A23D0F362C9F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7125B9C-994F-4192-851F-CBCD2C809D1E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525" iterate="1"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -76,6 +76,42 @@
   </si>
   <si>
     <t>alter table `NoticeConfig` convert to character set utf8;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cmd命令启动Mysql</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>net start mysql/net stop mysql</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入mysql安全模式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mysqld -nt --skip-grant-tables</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改mysql密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.0以上版本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.0以下版本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>update mysql.user set password='newpassword' where user='root';</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>update mysql.user set authentication_string=password('root') where user='root';</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -506,15 +542,16 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.26953125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28.6328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="57.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="82.36328125" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -595,31 +632,51 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
+      <c r="B7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
+      <c r="B8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
+      <c r="B9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
+      <c r="E9" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
+      <c r="B10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
+      <c r="E10" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>

--- a/mysql/mysqlnote.xlsx
+++ b/mysql/mysqlnote.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24026"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7125B9C-994F-4192-851F-CBCD2C809D1E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C42C4F7-8896-4F98-8585-7ADD12114266}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" iterate="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -112,6 +112,64 @@
   </si>
   <si>
     <t>update mysql.user set authentication_string=password('root') where user='root';</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>is null与=null的区别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.is null代表判断字段值为空
+2.=null 代表判断字符串是否等于null
+3.null代表未知不确定，不与任何值相等，包含其本身</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看正在执行的sql</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT * from mysql.general_log ORDER BY    event_time DESC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询历史sql记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>show processlist/ show full processlist;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> show variables like '%max_connections%';</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看数据库最大连接数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ALTER TABLE noticeconfig ADD CONSTRAINT noticeConstratnt UNIQUE(Edortype);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加唯一约束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>show index from noticeconfig;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看索引</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DROP INDEX noticeConstratnt ON noticeconfig;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除索引</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -185,7 +243,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -201,6 +259,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -539,10 +598,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -678,12 +737,89 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="42" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
+      <c r="B11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
